--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/13_Bartın_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/13_Bartın_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D10F3256-EA94-4555-A230-F143B314990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FD9BC6-C7F1-4852-9EC7-8CEBEC8D7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{0603D10F-54C4-4135-95F8-122936934263}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{84364EA7-D9EB-4691-AA7F-181C75D32B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -1003,14 +1003,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D3134DE4-6A4D-4F29-B7ED-DD8EE76F5312}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8A2FF0A1-60C4-45A3-B053-6B54F06A4286}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{8A4EFB81-7BDD-4A2B-ACBC-2DDAC21B9DC6}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{D5FA944D-8546-467C-9878-98E131DE4CDE}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{5676491F-C669-47DA-88C5-7F81215714CD}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7024FC6C-73C0-486E-8E23-17C2882D8BFC}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{5E47FDBB-A823-4F95-BB8E-3C9CA1DE687C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{A3BA88E8-EEA4-4DE2-A307-571A32CA130D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{61506C24-B914-4110-87A6-14ED4693D659}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{85684537-478E-4E1E-8E75-637BD06F4DA1}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{18E278A3-E4BC-4E16-BAC4-805C2AF794FC}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{59786132-284E-4403-89D4-96E1228A259C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{9D14404A-54E2-4F6A-B786-48CAA7D6B7A1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{8CFF6A6C-D2CA-4435-89FD-24810BCE0BF5}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F34F1820-9F70-40F6-B319-5323D441121A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{F693CAE3-C28B-467B-84E8-F830C875C5F7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1380,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732CE9D2-13F8-4A40-9A82-85B0086A4F35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A246EA61-2024-4021-9A50-3356DAFAF6F0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2627,18 +2627,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBB8BB31-9704-4B0B-8805-3254758B03FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A975B540-6099-4A7B-BE1F-D42A314D3EB2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BB9EF3B5-0F3A-452E-925D-0BCF18801937}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B119B388-1B0C-4CF2-B539-616CFCFC26E7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61866763-2422-498B-9484-CB187B5D2F4F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C0AB29E8-BB53-4EF5-9E34-0F6B4B8557E6}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4FAE9829-0295-4A64-AC10-9067391008E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09E266DB-3289-4959-8942-B4A72CCDA2B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6D9C8F0-F398-4587-BAE1-A02C61006E1E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{95792DD2-AD16-40AB-BF56-35F0A57D2CEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B32C77F4-9314-483F-87CA-32D232E92549}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95C008FF-BF7B-47F5-815E-494340FB3184}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A888D2FF-1665-46FF-B423-95608BD93D29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC658D1F-8CDC-48A3-ADD2-44DEAD17979B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9467ABC2-3AE4-47ED-AE71-C548845D4DF2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F84ECE92-BA34-4157-8F9E-7F0E25200649}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5AD736CB-D2E0-4651-93EB-166D4B0C834B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BE3378D-5537-448A-8E52-AD910399C67F}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{435C0472-945A-4172-BE9F-4D2577277CBA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47D5454E-D084-41C5-8F52-18EA0DF66A61}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50804138-6D88-4494-A033-4EA6B1B73BE3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{60BB360B-36F4-4563-B164-E9A0E4F31732}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1517A575-614B-41A4-AE55-26F5582FF501}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E98589C-6274-42FF-A770-853DE89BE521}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C78839-7DE9-41FF-93CE-5E82E458E87F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7F51EB-61F8-495C-8C6E-5508D0767EC9}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3930,18 +3930,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EB40274-E8C5-4F2A-93C0-0109FE6E8040}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24E6147C-1C4A-4451-952C-4A8627253A12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F8BBBEF-EB29-41B0-9323-25AD3EE6344C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32833485-961D-4ABF-8247-F07E98361380}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B0E709F-D58E-4EF5-92E2-9C0378E0C9DB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{29C2A3E4-A0EB-41F6-8358-0D3AED2F9A01}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{06EB6EA1-7459-4CFA-BEF2-BBB6AF75DE16}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91639E1F-48F2-488D-B2FC-9F5955112B84}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C96F01A-06CA-4F57-9D57-9276D672E441}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FB9D6AD0-0D47-4D73-8B9B-9FDC44F9A4D8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AA57D87-8C20-480F-B0C2-4BD45B390C63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{180A13E9-8760-44D5-888A-922355B5D3F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B425F262-F0F6-4FB5-9063-28EE18BB1C66}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6BC6434-0E5D-445D-8363-32D39081020F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D48F852-2058-4B7D-8562-D1F51C33DFC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4574B816-14E5-4A89-808F-BEAFF5BB5CCE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80393AB6-3D13-4677-9F62-C6B944322E99}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F80BF075-C648-48BA-8581-712B8D0F6D3C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{70715D05-CFEA-463A-AE63-15CF49ECB7EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{21D5A3F6-52AF-4B40-B29B-88FD1236EC36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CFE544F-43F3-4EDD-A3E7-96C7ADA5FE5A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{541C1EC6-5E3C-4C83-B5FC-1708506A693A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC6F96C7-EE40-4A4C-9ACC-EABFA5E51DB1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F8F22DE8-E4C7-4564-B6D7-2F8A254E7417}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3954,7 +3954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC866BE3-D076-4975-BF75-7037611842F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC147A7-9A35-44AA-8DDE-4A3317309DCC}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5233,18 +5233,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A9CD070-B24C-4AB5-A7DB-4F8DDDF3CDA6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B5136AB-FBFE-4AF2-BDAE-EA5783327801}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B211EB7E-8902-498B-889A-3B2003B226A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB21C394-5B9F-4396-824B-C60ED45625D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{292321CA-B57B-4706-BA9A-25B285DE4B88}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{08534B39-DF69-4635-9A94-B3B0A6DF67D2}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2163B9BE-4D1E-44AB-9AB6-A93B39B295B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52038AE9-CBAA-4D75-BF7B-2A7BBF5C20E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{507F45CE-FF99-439D-A2BE-8941F3B36784}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CF25E4CF-E1C9-4A64-8C89-EFD573347D6C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A0C8DD5-FC20-477E-8B37-37AD465F158E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8DBA718B-224D-49F5-83F1-C3F5E7E2CD16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E8198C7-F6E7-4FF3-87DE-86555850981B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5EB1E118-C480-4C5D-B2ED-C370FB1B303A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3E7A2C78-26C7-45A7-A5D2-C7A7CC82B16D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4BF0D5F9-B4A6-44B5-BBA6-24DAD660AD56}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{237D3E03-DA47-468A-85E6-833B2AE1D2CD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EF5E57AC-2317-4A2B-A4B8-EB722CE24BB4}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{3C16CFE3-EE9A-4839-9FD6-05617AD1D159}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{696F0A2B-469F-4840-A234-B0527CDE22EF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3948EE1F-835D-4C87-BC3E-970D2250E14E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F3883823-5174-4509-9A69-EBF75F792111}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C4578DB-9550-44DC-ACD7-BAB7B78BF5F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2BA2F6D-FB0D-428E-A4FC-EDE098ECDE33}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5257,7 +5257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB589CB-0157-4C72-ABB2-3258A17D462C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CA6222-1236-406D-8561-0F5B9518B056}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6520,18 +6520,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E94DD9D3-65EB-41A8-B4F3-11834ED26CD6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5757BF50-CCDE-4DA4-B2EA-59B4A60419C9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{027B17F2-1136-40CB-B287-C529C94D0B5C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25ABE929-B954-4079-B431-DB80F3479C7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{831D20B4-4D03-47BC-91CF-0F1A95BD723E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9D9C9F7D-E8FA-4AFB-97BC-B902B85D89F7}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{91F0E877-B9B9-4AEE-AE34-9C22BDC7DCE7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5F072F5-F59C-469B-AB99-11E858743FF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCDFE375-7C28-4725-BC73-E9E531DCDCE2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3A961CCA-0D9D-4131-BB1C-8B740A723231}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74070C01-B018-420F-9D2D-3CE3E2E1D56C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{362D5034-C0D5-4E79-95C9-2E298D611AC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{750BFAD3-4456-4F95-A068-24CE613E259D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B50309E-6310-4EDF-9283-7C11DC7790F4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ADE21569-25CA-4D39-A9F6-46574D7C3E89}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A709BE02-F82D-43D3-8E16-EDA657A2C79C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99C252F9-3C01-467F-B969-5BF6ED79D93F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50AD6D21-F148-41FD-8867-779C93BDE104}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{996EA399-59B6-44C9-BA75-BA48C62A5181}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98B4CEEB-15ED-4619-A885-8192129C1CC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15DD753C-6D31-4DCA-8EA0-41B36812029B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5120975E-D824-448B-B9FF-289D80C9DBB3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D64945B-9894-4FCF-8697-844196A86FBA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCB72A61-A6CB-4E68-B310-FBF0A5660D27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6544,7 +6544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F908B-B37E-4D42-9CD6-FCB58C63EAF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433F2085-71D6-4EED-BBB0-DA8750F4E8B4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7793,18 +7793,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA0FC893-7FEC-4160-AA05-5B0401DD34B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85CEDE12-6772-4A18-B1C6-BE2BEFE58070}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80C4484F-27E6-4F47-BEB7-14ECD08750A4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2DEE4E6-B140-459D-A1AB-574447E3918E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99C2FBFE-584B-48FB-B747-F74728B654FF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{12C883AB-442D-4068-AAFB-7781D7E8737A}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6253DC67-BCE0-44A5-AA21-450E12C61E3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74D52EC7-4FDD-4588-B9BF-A1A8ADE4DDA0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA5FB29F-7241-412B-B71A-A136FB0FF526}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5A5A6271-3D10-4FD1-9B62-98EFFA4FB537}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32E5C286-8209-4DAF-98D1-2174DD52FB47}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B799E54-114F-4AC9-BCE6-4B2235B53B03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{689D0C96-5AD8-496D-824D-3ABDF61E1CCD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E903EAB-1F90-4DF1-89F6-81070F614EB1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{98B6CD29-9301-49FC-A032-53083B4C9F2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B28B7662-0EE5-4C21-80DF-6455DFD61F60}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A471C58-F8B6-4AEE-B44D-9041E1E24124}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A11D714D-35B0-466F-9C10-062A3EA85103}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{06F8EE54-99A2-4E34-8584-FE13FF32322F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F038029-5D7D-4FAC-8A90-BF3BFDD79CB6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB3B4E75-781F-422E-8D56-F761CA932BB8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2DAA886D-1F4C-442A-AA04-3833A6C3D5CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{664CED19-BE0A-4928-A580-E33DBC471131}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6481913C-70D8-46A8-B412-0DDA6F98C57F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7817,7 +7817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F46C5FF-7D35-4BA3-A1D7-11E445A644FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCBAD1A-3B4E-42A5-ADC2-0979A7D346CA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9066,18 +9066,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9B4D13E-FFDB-47A3-94F9-BD1D2240D750}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EF4FDF3-032B-48F3-9B6A-8D37A76416F3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36834D22-F756-430E-A28E-940C32E94D65}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2EC397E9-DAAE-48F7-AB93-56B8B47F085A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1468BF1F-B058-46DB-B4F5-E2D13CA96763}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EA9A9403-D271-43CD-95EC-8011AA8BC2A4}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{9B0F3022-2BE4-4888-9494-A7BD05FE2AE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6E3D253-86AE-44C2-A690-378E47B02FE9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41A12186-3F7B-443F-8A90-4338C61D315D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6422D4FF-5E0F-4CF1-823D-DBA0E160D5BC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D369D9D1-1C37-4DD2-92C9-3ED9FCBBBD3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3C213C2-9937-4E2E-BE46-FB0ED932BFD6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5FC43B8-11A9-47E0-8D8D-BF275C795A26}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D787792D-B242-46E2-BC16-517150E120E8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2DC76EAF-DB8A-49CF-9F46-2D7F227B44B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58EA7CC9-3FC0-48D6-8031-38035DDAD2E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A1EBB063-4004-44B5-A4BD-174942547759}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{93CA672E-FB68-41F5-B9D9-70BB55906D12}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{613DB1E7-11BE-491C-80D9-D3D32784BD1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3959F0A-695C-4E71-8F8F-567A60508E1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62DE9831-89F0-4D60-9C1A-719102B89B53}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8BA5BD0D-C7D6-4E95-9C8E-D2F6A9D89A6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD8CFB7C-2354-4B47-AF29-1D4B232AF62F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2F33E8C-60A3-434C-BDF6-2261ABEC9EF6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9090,7 +9090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973C4B8C-BB75-4A48-925C-AC27A820A91C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70304CBF-0027-4D7F-8B4D-5EA1BEC4265F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10339,18 +10339,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC8D3607-5148-4472-A945-2BB75FEAA783}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64090EDB-169E-40BD-9A83-D5FF7E8365E4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C68D2238-FE5C-4DE7-81F9-21C2A56DC2E3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3A1DDDD-12BA-44D0-AB2C-48B51563D7A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B456E9EE-6153-4214-B889-C198C30E45D3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FFE96F44-C955-499E-A533-87A28A3E09D9}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7DAE1D3B-7352-4F75-B7D2-3D12DBB94F71}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A64782B-D125-46CD-AEEA-ADB266C4CC39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65F4AC77-A47B-467D-993D-D567DA3BE10C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0F2332F0-80CF-460B-BEDF-7431D4972EFF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93884218-0E20-4525-A07D-9F5D2D9B2AFC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C7F5426-6FDC-4364-818B-AD8AAE7ED549}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55C41F51-CFF7-4587-B533-D01F40F056C5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C82BCDC-3964-4C58-945C-19AAD8E0FD5A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C10F175-9FC8-4894-83CA-E9D654D2EB2D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F71D71C-6A77-47CB-9265-ED3335C4E8A6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B3AAE43-0672-4A64-BA6C-8D7BAF71E1C0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9246457D-E79E-4CA5-838D-BA8D2690E491}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{FD32BE5B-B726-4110-826D-B2F1D88D7A20}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCBA4A22-16E3-466C-857C-AD01B97E4B53}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18BFED68-5867-4879-889E-C4EC4BE72709}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{53F3D2DF-A419-40AE-97A7-142D0ACEBB86}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D325715C-D22B-4D69-AFAC-8B997DC2BE06}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A50B7FE-DF1A-4E8D-9A8C-642B79F1C2F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10363,7 +10363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6EFF3D-87BC-4CFD-A46A-5056455B18E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B73F273-A234-4D8B-971F-276331DCEC59}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11612,18 +11612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3169D6F-D938-4473-8648-45C40BCD2786}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6568C3B9-8E51-469F-9952-81B21BF4E100}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{887E6210-BF4F-4CB0-B768-979F4ACA917F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6303016A-09EB-4CDA-906C-0C685A5430E7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1F7F63C-6C7E-49E1-89D5-E17EA8FE0669}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8E5CDE3B-0A71-4130-8DD6-FB70C8D791B1}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{57EF31ED-7B88-4941-B323-59042689ED8A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B56E4BC5-C715-4043-BE08-16A98B673548}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA7C7F18-DD24-4782-86E1-69DC437B5793}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6CAF9DB2-8E00-4A10-BAD4-B99D526D1E5B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A15A6BC-2867-4630-98D5-587ABA059375}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29DDE331-833F-4150-AB0E-EF7544D909DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47E19F7A-F581-41B3-B7FB-2BA503749958}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4E8D978-9796-4CC5-A0CD-52406DE0C3F4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{423D3B9C-FFAE-4618-A031-77264FE6A8A7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B560AD6-9CF8-4012-A295-FA4FB4099DE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B109AD3-7B01-41E1-ADDA-E56BDFCBC6A6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AF39982B-D63A-485F-86C2-A74C4110EE12}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BAC6E21D-2DC3-43FE-8E70-FE73FA51F6C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF366F42-AFFA-42AF-B72D-6465FB6E6437}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C3F344A-661C-4954-9FE3-76E0AD8B392A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A29BA4A-DEB1-4EAD-84EF-C4B174448B65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8EED443-DDEB-4DB9-9CA3-191F604EAE41}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7438B1B1-B429-44BF-AD8E-6C18F330D629}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11636,7 +11636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA522015-24D9-4DFA-A76F-14667823981D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA72BBF-6624-4012-AB7E-0D90D2FD8442}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12877,18 +12877,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7EC824D2-ACC1-47B8-BE19-2E545222272C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C8E0D21-4658-4D49-990A-BAE96FB68731}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{60D8B130-5DDE-44BF-9E0B-5A6126151ED9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0FC85A6-6553-4AA4-891F-EEB87730ADA1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9BC289C-6174-4BD0-B8F7-8B2390EF0748}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A90C4B23-0EE7-403B-81F3-A7DAD2DEB6CA}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{E947AB07-E92D-468C-A21E-19E817455425}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19FF9752-EFC5-4B90-8536-1BD84463F8E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91134C4E-21FE-4146-9F1E-0CB497DC56E0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BA1F505A-E977-4548-A29C-0C853BFBD975}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A81FD43E-5952-4756-8422-B2CD59FE00F0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC6AFFDC-BC16-479E-A339-A45FF4DB324E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CFF076A-5DAF-457E-A5DB-4C18CF7E3F2C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA73FFD9-77C6-4B05-838A-1A9F4E3EB488}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17ECF779-C691-40BF-B344-5689CD7BD9DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB058158-DE7E-4A30-B302-0A3B904DE5CC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8968E831-0644-4BDE-8761-E9F16B235508}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41431B40-00D4-47D0-9168-6B5A23AFB058}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{C5E8EA87-8418-4184-A710-56A0A8E1F3FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91DC554D-4740-45D8-A2DA-7B074EC3BAF0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8957B53-84FD-4B5C-B539-9898D522D539}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D69878A7-F718-4706-A268-949B9F4E24B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ECC89F5E-E1A1-451E-81EE-213C71B1024E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A4C1F46F-A287-4853-ABB1-748125528EDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12901,7 +12901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA1A066-0B1C-4860-9394-F759974F1B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EFD5AE-E4E7-4DC1-A180-9A2939A72B0E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14190,18 +14190,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F1CF2E3-C776-4008-8473-C032A0DB329D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{97421EA3-F107-4108-A3AC-A0AC341A2898}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C2A801C6-FDEC-4E3A-82A6-915E6018A08A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{59E3010D-B11F-42D1-BE2A-1CC90FB4C133}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05135BBF-DDC9-4CE2-B1DA-A66F3C5D19F6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{43CC4856-4883-4C0C-9D50-484820D62139}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{76C3E26D-FB0F-4BBA-9904-B58FA59E05E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83796F15-2728-429D-A54F-96F7B6C6A956}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A5FA8DDF-D4BB-4F05-87F9-1AAB83A8C37D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B6E44E9F-FF79-41A2-9AB4-C18F694265EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3183EC7-07D0-40EE-9FFF-B2983756231F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64452716-F387-479F-B797-700595C7C136}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BB5EE27-08A2-4ADB-ACCF-3DBB9703FC30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E46BD2B-D987-4B28-AE43-E7AA9C8641F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0E8264C-39EA-4466-960D-BCFE955C69C7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A71832D1-59FA-4D20-922C-1A727C3B4D71}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A88112DA-3490-484A-81C1-B198217F7C3B}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BDAFF11E-BD87-4CEB-AF51-5B8C1EC2FA31}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1366A4FF-1C94-4031-BC78-88DF54C8B4AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40469F7E-BB93-40E0-BF34-A25D5E14226D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3645637-6A98-44B1-9328-FAA7EA79E653}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C72B10C5-38C4-4339-BF25-DEE796D3F197}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8146C1A2-062B-431D-B94B-96AC39461B87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7667A0B6-6BDA-44E7-8A71-7CDA5AA5395E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14214,7 +14214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289BEA26-2ACC-4801-B32C-0E8B9B24E66E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5810A8-DC35-4390-B4AB-8FEEFD90C32C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15493,18 +15493,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F45857C5-6942-436B-B3B0-83387A087A40}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39552C83-7728-4B6F-B22D-B9AAF8FF0F4F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E52CFDE4-7BD9-4DA6-891B-A82BDC36FA1B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{70006D70-20CD-48B3-BE50-A474658E6FA3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C2833F0-3238-42C9-A053-335BCD0CBBC1}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{82CED5D5-8CC2-4884-81DD-29E42D4411D8}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{382BC667-7CA7-48D1-9BE5-5B5A7C16AA90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B091EA3D-70EC-48A7-BA51-48C3A8FA1F0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE4CDC9C-AD16-4E17-961B-6407FED7B5B7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D3E57A0F-EC57-4319-BD16-14EAF2F30DA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C260AD61-6529-441C-BFDF-3F82697F3606}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5148263B-9FB6-4B01-B697-5BD5827FDBB3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EDE08899-3480-457F-93D9-E5385A84C889}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EE0686C-F9A9-41C5-834B-74F3E60ACC1E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F54D9C9E-4D4D-425C-80FE-54E6370F1917}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2ED656AC-03B6-4F85-BE60-9690D473FBB9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0A70D50-8DD8-4F8A-9CAD-BD39012A7488}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{413B2094-C8AD-4390-882F-147FB869361D}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B3881653-21BE-441D-878C-65F26E631B6B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{836C7886-1241-41C0-AC13-8631614DD56B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C2737FD3-621A-44D9-88AD-43C9531EC6B2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6D3870DE-F9BF-48AD-A92F-953AA3ADB22E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C54B682-0215-49FB-9BC7-D2FDA753CD6D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C96DAF4-8B35-42EB-909A-176B7B3C2B89}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15517,7 +15517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687C235B-7F4B-4BAB-8469-6AFED2956EF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C6EC1C-DE39-43E6-BF04-5B8194301D0B}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16796,18 +16796,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26828D0F-33E4-453B-A8F4-CD01760DC324}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9FDA91E-DE4C-4A42-A3AA-8834FCD314B7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3339A05-7DDA-4BB8-9862-B48C6CEE1C14}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97F8A24D-B02D-471C-830A-A75DFB4CA9E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E951EF6-5213-4798-ACA3-694E308BD4AB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EC7FC782-0A2C-4A82-9A7D-8A6856A71204}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{EA635543-78DF-4245-8D80-E026505CA8ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3012964-F838-407D-8F2A-70EECA954C3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E2AF3A3-C5B1-4F66-AC35-9E7E9B7BCC7E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{01C02AB2-B405-4B65-8339-95038D0EF9A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{986A852C-19DD-4BFD-8736-8125DA10AA36}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A768A420-4043-4D75-979B-4CB3335D5D4C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0328C064-D894-44BE-9FF7-8585FE6EC23F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21AD52DE-5383-40CE-88A9-D2ED6290D623}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9FA0FF0F-00D6-4AB4-9217-C11F5720B412}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC05F2AD-9813-4328-A7FE-05597D35759A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F87699F9-137E-4433-BFBE-3079FEB9D60F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{015901A4-DE6F-4AF2-A5EF-8C806303BC2C}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{EB64F154-B205-4E51-9D75-D81656A32FC3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EC63D25-1A46-477B-9E77-02BB969D74D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1938881-D19D-47E1-A015-0A012FC3D6DA}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CA9C4F1E-2452-4085-ACB0-673C9DE1D765}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{343941A9-10FD-48D5-AE1A-EA366992A3F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76652923-2ED9-45BA-B52F-EC72C355EBDB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
